--- a/AAMC/SampleReview.xlsx
+++ b/AAMC/SampleReview.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38781B53-0B1B-4ED9-842E-867F023F0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC9CC9-590A-47AA-9E8A-5191D76A4A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2BF53C3D-C152-449B-9338-F3E5C188FC18}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2BF53C3D-C152-449B-9338-F3E5C188FC18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PsychologySociology" sheetId="1" r:id="rId1"/>
+    <sheet name="Biology" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,263 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>this always seems like my worst section</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Content Gap:</t>
+  </si>
+  <si>
+    <t>Spreading activation: when a concept is activated, the activation spreads to related concepts</t>
+  </si>
+  <si>
+    <t>Depth of processing: type of attention applied to words during encoding</t>
+  </si>
+  <si>
+    <t>Serial position: improved memory for words at the beginning and at the end of a list</t>
+  </si>
+  <si>
+    <t>Visuospatial sketchpad: subcomponent of working memory</t>
+  </si>
+  <si>
+    <t>Proactive interference: when information from long term memory interferes with new information</t>
+  </si>
+  <si>
+    <t>What is proactive interference?</t>
+  </si>
+  <si>
+    <t>What is working memory? What is spreading activation?  What is depth of processing?</t>
+  </si>
+  <si>
+    <t>Intergenerational Mobility</t>
+  </si>
+  <si>
+    <t>Social Reproduction</t>
+  </si>
+  <si>
+    <t>Relative poverty</t>
+  </si>
+  <si>
+    <t>What is social reproduction?</t>
+  </si>
+  <si>
+    <t>Social Reproduction: perpetuation of inequalities through social institutions</t>
+  </si>
+  <si>
+    <t>Meritocracy</t>
+  </si>
+  <si>
+    <t>Institutional Discrimation</t>
+  </si>
+  <si>
+    <t>Cultural Relativism</t>
+  </si>
+  <si>
+    <t>Social Stratification: objective hierarchy in a society, and often more specifically addresses the class-based hierarchy</t>
+  </si>
+  <si>
+    <t>What is social stratification?</t>
+  </si>
+  <si>
+    <t>Confirmation bias: biased towards information that confirms existing beliefs</t>
+  </si>
+  <si>
+    <t>Group polarization: when people who are in agreement with each other discuss an issue, their views get more extreme</t>
+  </si>
+  <si>
+    <t>Anomie: a lack of social norms, which leads to a breakdown in the connection between an individual and their community</t>
+  </si>
+  <si>
+    <t>Galton = Genetics</t>
+  </si>
+  <si>
+    <t>latent learning refers to learning without an explicit change in behavior</t>
+  </si>
+  <si>
+    <t>BiNet = meNtal</t>
+  </si>
+  <si>
+    <t>Kohlberg's theory of moral development</t>
+  </si>
+  <si>
+    <t>James-Lange Theory: physiological arousal precedes the experiencing of emotions</t>
+  </si>
+  <si>
+    <t>Piagets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mead's theory of self: I. spontaneous and autonomous part of the self and </t>
+  </si>
+  <si>
+    <t>Me. part of the self that is formed in interaction with others and with the general social environment</t>
+  </si>
+  <si>
+    <t>Freud's id</t>
+  </si>
+  <si>
+    <t>Freud's ego</t>
+  </si>
+  <si>
+    <t>Freud's superego</t>
+  </si>
+  <si>
+    <r>
+      <t>second-order conditioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>higher-order conditioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a form of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0645AD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in which a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0645AD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stimulus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is first made meaningful or consequential for an organism through an initial step of learning, and then that stimulus is used as a basis for learning about some new stimulus</t>
+    </r>
+  </si>
+  <si>
+    <t>Overthinking… no extinction yet</t>
+  </si>
+  <si>
+    <t>Implicit Memory: knowledge based on previous experiences such as skills that we perform automatically once you have mastered them</t>
+  </si>
+  <si>
+    <t>Procedural memory: a subset of implicit memory</t>
+  </si>
+  <si>
+    <t>Sensory Memory</t>
+  </si>
+  <si>
+    <t>Working Memory</t>
+  </si>
+  <si>
+    <t>Peristalsis?</t>
+  </si>
+  <si>
+    <t>Social Integration: attachments individuals sustain with the larger society and are typically measured in terms of occupational, organizational, and community role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it mean to be split-brain? Esp for colors </t>
+  </si>
+  <si>
+    <t>Not a content gap, misread</t>
+  </si>
+  <si>
+    <t>Didn't know that 10% data missing would be bad</t>
+  </si>
+  <si>
+    <t>Reaction formation</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Sublimation</t>
+  </si>
+  <si>
+    <t>Social Constructionism: the product of groups/ individuals rather than of natural processes (in other words, technology is a social creation)</t>
+  </si>
+  <si>
+    <t>2nd worst</t>
+  </si>
+  <si>
+    <t>Reading Comprehension Issue</t>
+  </si>
+  <si>
+    <t>Content Gap</t>
+  </si>
+  <si>
+    <t>Cytochrome c is a 1-electron carrier</t>
+  </si>
+  <si>
+    <t>Ubiquinone is 2, if u wanted to kno</t>
+  </si>
+  <si>
+    <t>Reading Comprehension Issue, but it's ok</t>
+  </si>
+  <si>
+    <t>Carelessness</t>
+  </si>
+  <si>
+    <t>Don't think I read the paragraph</t>
+  </si>
+  <si>
+    <t>Content Forgetting</t>
+  </si>
+  <si>
+    <t>Not a trick question, fewer signals are sent</t>
+  </si>
+  <si>
+    <t>idk</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +289,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0645AD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,14 +353,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4141"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,12 +695,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E5CE7-640F-4FEA-A683-2C03F83AAE7E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <f>43/59</f>
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB058A2-6F93-457E-B90D-3D5D9C15CD1D}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <f>45/59</f>
+        <v>0.76271186440677963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AAMC/SampleReview.xlsx
+++ b/AAMC/SampleReview.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melto\Documents\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BC9CC9-590A-47AA-9E8A-5191D76A4A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A305F8B6-757F-4EDC-B47D-8BD8C14DFB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2BF53C3D-C152-449B-9338-F3E5C188FC18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{2BF53C3D-C152-449B-9338-F3E5C188FC18}"/>
   </bookViews>
   <sheets>
     <sheet name="PsychologySociology" sheetId="1" r:id="rId1"/>
     <sheet name="Biology" sheetId="2" r:id="rId2"/>
+    <sheet name="CARS" sheetId="3" r:id="rId3"/>
+    <sheet name="ChemPhysics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>Notes</t>
   </si>
@@ -276,6 +278,63 @@
   <si>
     <t>idk</t>
   </si>
+  <si>
+    <t>hydrophobic effect and amino acids</t>
+  </si>
+  <si>
+    <t>endoderm… mouth is not endernal organ</t>
+  </si>
+  <si>
+    <t>Chose B, wanted more evidence, looked in passage, changed to A. Shouldve kept B for how it relates to the main idea</t>
+  </si>
+  <si>
+    <t>Answer B, the option I chose was an extreme: too abstract</t>
+  </si>
+  <si>
+    <t>Answer B, the option I chose actually didn't answer the question.</t>
+  </si>
+  <si>
+    <t>Shouldve went back to the text… "long and dreary" is not beautiful</t>
+  </si>
+  <si>
+    <t>Shouldve went back to the line right after authenticity… not the text a few lines afterwards</t>
+  </si>
+  <si>
+    <t>I didn't visualize the metaphor enough: this is driving me around the bend---&gt;the bend if taking me from point A sanity to point B madness</t>
+  </si>
+  <si>
+    <t>Didn't understand the main idea of those paragraphs abt the people who lost their jobs</t>
+  </si>
+  <si>
+    <t>Shouldve got this right, just imagine the Na+ ions move in</t>
+  </si>
+  <si>
+    <t>ph=5… BRUH I shouldve got this right, weak acid</t>
+  </si>
+  <si>
+    <t>content forgetting, didn't know what principal quantum number was</t>
+  </si>
+  <si>
+    <t>Missed 1 logical step --&gt; .46 binded warfarin --&gt; .54 binded cpfx</t>
+  </si>
+  <si>
+    <t>content gap, aa</t>
+  </si>
+  <si>
+    <t>Archimedes' principle</t>
+  </si>
+  <si>
+    <t>Not deoxy… didn’t hear it in my brain</t>
+  </si>
+  <si>
+    <t>says in the passage, forgot what carboxylate was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I took two logical steps -&gt; can measure flow b/c change in frequency -&gt; differentiate between tissue and fluid, but only needed to go to the first </t>
+  </si>
+  <si>
+    <t>shouldve got this right, my answer choice does not have balanced charges</t>
+  </si>
 </sst>
 </file>
 
@@ -324,12 +383,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,29 +412,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E5CE7-640F-4FEA-A683-2C03F83AAE7E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,16 +801,16 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -763,7 +824,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -777,16 +838,16 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -797,16 +858,16 @@
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -817,7 +878,7 @@
       <c r="A9">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -825,16 +886,16 @@
       <c r="A10">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -845,13 +906,13 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -859,19 +920,19 @@
       <c r="A12">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -879,7 +940,7 @@
       <c r="A13">
         <v>30</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -887,7 +948,7 @@
       <c r="A14">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -895,19 +956,19 @@
       <c r="A15">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -915,7 +976,7 @@
       <c r="A16">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -923,7 +984,7 @@
       <c r="A17">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -931,7 +992,7 @@
       <c r="A18">
         <v>53</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -939,23 +1000,23 @@
       <c r="A19">
         <v>54</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -969,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB058A2-6F93-457E-B90D-3D5D9C15CD1D}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,7 +1069,7 @@
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1016,7 +1077,7 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1024,7 +1085,7 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1038,7 +1099,7 @@
       <c r="A8">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1046,7 +1107,7 @@
       <c r="A9">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1054,7 +1115,7 @@
       <c r="A10">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1062,7 +1123,7 @@
       <c r="A11">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1070,7 +1131,7 @@
       <c r="A12">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1078,7 +1139,7 @@
       <c r="A13">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1089,7 +1150,7 @@
       <c r="A14">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1097,7 +1158,7 @@
       <c r="A15">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1105,21 +1166,200 @@
       <c r="A16">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3C6A3F-D4EB-49F1-815B-D07613178D40}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.90625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88480451-10A4-4267-85C4-AD3FDFF73EBB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="33.1796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>